--- a/backend/result-sheets/aligned_sequences.xlsx
+++ b/backend/result-sheets/aligned_sequences.xlsx
@@ -70,13 +70,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="3:10">
+    <row r="1" spans="3:11">
       <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
@@ -90,19 +90,22 @@
         <v>3</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>0</v>
-      </c>
       <c r="I1" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:10">
+      <c r="K1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
@@ -130,8 +133,11 @@
       <c r="J2" s="1" t="n">
         <v>-16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="n">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
@@ -162,8 +168,11 @@
       <c r="J3" s="1" t="n">
         <v>-13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="1" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
@@ -194,10 +203,13 @@
       <c r="J4" s="1" t="n">
         <v>-10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="1" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>-6</v>
@@ -206,30 +218,33 @@
         <v>-3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>-1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="1" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>-8</v>
@@ -238,30 +253,33 @@
         <v>-5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>-6</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>-10</v>
@@ -270,25 +288,63 @@
         <v>-7</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>-2</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>-1</v>
+        <v>-5</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>-12</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>-4</v>
       </c>
     </row>
   </sheetData>
